--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayuri\Desktop\AvaSec\Secretarial-Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AvaSec26\Avsec26July2023\Secretarial-Project-26JULY23\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -759,9 +759,6 @@
     <t>aaa</t>
   </si>
   <si>
-    <t>admin@12345</t>
-  </si>
-  <si>
     <t>ListofRelatives</t>
   </si>
   <si>
@@ -817,6 +814,9 @@
   </si>
   <si>
     <t>Securitiespledged</t>
+  </si>
+  <si>
+    <t>admin@123456</t>
   </si>
 </sst>
 </file>
@@ -1343,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2711,7 +2711,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2724,20 +2724,20 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" t="s">
         <v>246</v>
-      </c>
-      <c r="B17" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2753,15 +2753,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" t="s">
         <v>251</v>
-      </c>
-      <c r="B21" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B23">
         <v>2072023</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B24">
         <v>3072023</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25">
         <v>122</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -2809,15 +2809,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" t="s">
         <v>259</v>
-      </c>
-      <c r="B28" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30">
         <v>223</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s">
         <v>179</v>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="270">
   <si>
     <t>Url</t>
   </si>
@@ -817,13 +817,31 @@
   </si>
   <si>
     <t>admin@123456</t>
+  </si>
+  <si>
+    <t>My Reports</t>
+  </si>
+  <si>
+    <t>Add DIR-3 KYC</t>
+  </si>
+  <si>
+    <t>DIR-3 KYC Status</t>
+  </si>
+  <si>
+    <t>SRN</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,8 +993,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF767676"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -986,6 +1009,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,7 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1060,6 +1089,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1343,7 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2584,10 +2615,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2839,6 +2870,40 @@
         <v>179</v>
       </c>
     </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1"/>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -816,9 +816,6 @@
     <t>Securitiespledged</t>
   </si>
   <si>
-    <t>admin@123456</t>
-  </si>
-  <si>
     <t>My Reports</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>admin@1234567</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2617,7 +2617,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -2872,28 +2872,28 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:2">

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AvaSec26\Avsec26July2023\Secretarial-Project-26JULY23\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>https://login.teamleaseregtech.com/BM_Management/Meetings/Meetings#</t>
-  </si>
-  <si>
-    <t>secretarialdemo@gmail.com</t>
-  </si>
-  <si>
     <t>Account No</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Pqrs</t>
-  </si>
-  <si>
     <t>Description AOA</t>
   </si>
   <si>
@@ -834,7 +825,16 @@
     <t>yes</t>
   </si>
   <si>
-    <t>admin@1234567</t>
+    <t>rohit.korde@tlregtech.com</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>https://secretariallive.teamleaseregtech.com</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1091,6 +1091,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1375,13 +1376,13 @@
   <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1389,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1397,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1405,123 +1406,123 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>7654323456765430</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="30">
+        <v>65327523467</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75">
-      <c r="A18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1529,28 +1530,28 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>1111111111</v>
@@ -1558,100 +1559,100 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -1659,23 +1660,23 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>7654323456765630</v>
@@ -1683,20 +1684,20 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B42">
         <v>24</v>
@@ -1704,7 +1705,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1712,44 +1713,44 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>33</v>
@@ -1757,7 +1758,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1765,15 +1766,15 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>22</v>
@@ -1781,41 +1782,41 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B58">
         <v>12</v>
@@ -1823,52 +1824,52 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -1876,7 +1877,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B66">
         <v>4545</v>
@@ -1884,15 +1885,15 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1900,23 +1901,23 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B71">
         <v>51</v>
@@ -1924,28 +1925,28 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -1953,7 +1954,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1961,7 +1962,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1969,7 +1970,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -1977,15 +1978,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -1993,7 +1994,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B81">
         <v>12</v>
@@ -2001,7 +2002,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2009,44 +2010,44 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B88">
         <v>100</v>
@@ -2054,7 +2055,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B89">
         <v>212</v>
@@ -2062,7 +2063,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B90">
         <v>100</v>
@@ -2070,7 +2071,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B91">
         <v>125</v>
@@ -2078,7 +2079,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B92">
         <v>1000</v>
@@ -2086,7 +2087,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>233</v>
@@ -2094,7 +2095,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B94">
         <v>12</v>
@@ -2102,23 +2103,23 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B97">
         <v>213</v>
@@ -2126,7 +2127,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B98">
         <v>12</v>
@@ -2134,28 +2135,28 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2163,15 +2164,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -2179,7 +2180,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B105">
         <v>1000</v>
@@ -2187,7 +2188,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B106">
         <v>200</v>
@@ -2195,7 +2196,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B107">
         <v>1123</v>
@@ -2203,15 +2204,15 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2219,7 +2220,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -2227,7 +2228,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B111">
         <v>1111</v>
@@ -2235,36 +2236,36 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B116">
         <v>222</v>
@@ -2272,23 +2273,23 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B119">
         <v>12</v>
@@ -2296,105 +2297,105 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B128" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B132" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B133">
         <v>1000</v>
@@ -2402,7 +2403,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B134">
         <v>12</v>
@@ -2410,15 +2411,15 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B135" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B136">
         <v>11</v>
@@ -2426,7 +2427,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -2434,15 +2435,15 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2450,7 +2451,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B140">
         <v>2000</v>
@@ -2458,7 +2459,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B141">
         <v>1233</v>
@@ -2466,15 +2467,15 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B142" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -2482,52 +2483,52 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B147" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B148" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -2535,7 +2536,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B151">
         <v>1221</v>
@@ -2543,7 +2544,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B152">
         <v>222</v>
@@ -2551,7 +2552,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B153">
         <v>1222</v>
@@ -2559,7 +2560,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B154">
         <v>1322</v>
@@ -2567,7 +2568,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -2575,15 +2576,15 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B156" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -2591,10 +2592,10 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B158" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2617,44 +2618,44 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B4">
         <v>12344321</v>
@@ -2662,39 +2663,39 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
         <v>229</v>
-      </c>
-      <c r="B5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
         <v>230</v>
-      </c>
-      <c r="B6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
         <v>231</v>
-      </c>
-      <c r="B7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B9">
         <v>123456785643</v>
@@ -2702,7 +2703,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B10">
         <v>1111111111</v>
@@ -2710,65 +2711,65 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2776,7 +2777,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2784,15 +2785,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -2800,7 +2801,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B23">
         <v>2072023</v>
@@ -2808,7 +2809,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B24">
         <v>3072023</v>
@@ -2816,7 +2817,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B25">
         <v>122</v>
@@ -2824,7 +2825,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -2832,7 +2833,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -2840,15 +2841,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -2856,7 +2857,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B30">
         <v>223</v>
@@ -2864,44 +2865,44 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="29" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="270">
   <si>
-    <t>Url</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -834,7 +827,10 @@
     <t>abc</t>
   </si>
   <si>
-    <t>https://secretariallive.teamleaseregtech.com</t>
+    <t>URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://secretariallive.teamleaseregtech.com</t>
   </si>
 </sst>
 </file>
@@ -999,7 +995,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1018,8 +1014,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1027,12 +1029,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1092,6 +1105,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1376,47 +1392,47 @@
   <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" customFormat="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" customFormat="1" ht="15" thickBot="1">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="30">
         <v>65327523467</v>
@@ -1424,105 +1440,105 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.6">
+      <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.5">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1530,28 +1546,28 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>1111111111</v>
@@ -1559,100 +1575,100 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
         <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
         <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
         <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -1660,23 +1676,23 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
         <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>7654323456765630</v>
@@ -1684,20 +1700,20 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
         <v>58</v>
-      </c>
-      <c r="B41" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42">
         <v>24</v>
@@ -1705,7 +1721,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1713,44 +1729,44 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
         <v>62</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
         <v>64</v>
-      </c>
-      <c r="B45" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>33</v>
@@ -1758,7 +1774,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1766,15 +1782,15 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
         <v>72</v>
-      </c>
-      <c r="B51" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52">
         <v>22</v>
@@ -1782,41 +1798,41 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
         <v>75</v>
-      </c>
-      <c r="B53" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
         <v>78</v>
-      </c>
-      <c r="B55" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>12</v>
@@ -1824,52 +1840,52 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
         <v>84</v>
-      </c>
-      <c r="B60" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" t="s">
         <v>87</v>
-      </c>
-      <c r="B62" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
         <v>89</v>
-      </c>
-      <c r="B63" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -1877,7 +1893,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66">
         <v>4545</v>
@@ -1885,15 +1901,15 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1901,23 +1917,23 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
         <v>97</v>
-      </c>
-      <c r="B69" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s">
         <v>99</v>
-      </c>
-      <c r="B70" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71">
         <v>51</v>
@@ -1925,28 +1941,28 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
         <v>104</v>
-      </c>
-      <c r="B73" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -1954,7 +1970,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1962,7 +1978,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1970,7 +1986,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -1978,15 +1994,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
         <v>110</v>
-      </c>
-      <c r="B79" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -1994,7 +2010,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81">
         <v>12</v>
@@ -2002,7 +2018,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2010,44 +2026,44 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" t="s">
         <v>115</v>
-      </c>
-      <c r="B83" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
         <v>117</v>
-      </c>
-      <c r="B84" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" t="s">
         <v>120</v>
-      </c>
-      <c r="B86" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" t="s">
         <v>122</v>
-      </c>
-      <c r="B87" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B88">
         <v>100</v>
@@ -2055,7 +2071,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89">
         <v>212</v>
@@ -2063,7 +2079,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90">
         <v>100</v>
@@ -2071,7 +2087,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91">
         <v>125</v>
@@ -2079,7 +2095,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92">
         <v>1000</v>
@@ -2087,7 +2103,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B93">
         <v>233</v>
@@ -2095,7 +2111,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B94">
         <v>12</v>
@@ -2103,23 +2119,23 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" t="s">
         <v>133</v>
-      </c>
-      <c r="B96" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>213</v>
@@ -2127,7 +2143,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>12</v>
@@ -2135,28 +2151,28 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" t="s">
         <v>137</v>
-      </c>
-      <c r="B99" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2164,15 +2180,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" t="s">
         <v>143</v>
-      </c>
-      <c r="B103" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -2180,7 +2196,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B105">
         <v>1000</v>
@@ -2188,7 +2204,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B106">
         <v>200</v>
@@ -2196,7 +2212,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107">
         <v>1123</v>
@@ -2204,15 +2220,15 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" t="s">
         <v>148</v>
-      </c>
-      <c r="B108" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2220,7 +2236,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -2228,7 +2244,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B111">
         <v>1111</v>
@@ -2236,36 +2252,36 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" t="s">
         <v>153</v>
-      </c>
-      <c r="B112" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" t="s">
         <v>156</v>
-      </c>
-      <c r="B114" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B116">
         <v>222</v>
@@ -2273,23 +2289,23 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" t="s">
         <v>160</v>
-      </c>
-      <c r="B117" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B119">
         <v>12</v>
@@ -2297,105 +2313,105 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120" t="s">
         <v>164</v>
-      </c>
-      <c r="B120" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" t="s">
         <v>166</v>
-      </c>
-      <c r="B121" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" t="s">
         <v>168</v>
-      </c>
-      <c r="B122" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B124" t="s">
         <v>171</v>
-      </c>
-      <c r="B124" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B125" t="s">
         <v>173</v>
-      </c>
-      <c r="B125" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B126" t="s">
         <v>175</v>
-      </c>
-      <c r="B126" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B128" t="s">
         <v>178</v>
-      </c>
-      <c r="B128" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" t="s">
         <v>183</v>
-      </c>
-      <c r="B132" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B133">
         <v>1000</v>
@@ -2403,7 +2419,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B134">
         <v>12</v>
@@ -2411,15 +2427,15 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B135" t="s">
         <v>187</v>
-      </c>
-      <c r="B135" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B136">
         <v>11</v>
@@ -2427,7 +2443,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -2435,15 +2451,15 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B138" t="s">
         <v>191</v>
-      </c>
-      <c r="B138" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2451,7 +2467,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B140">
         <v>2000</v>
@@ -2459,7 +2475,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B141">
         <v>1233</v>
@@ -2467,15 +2483,15 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B142" t="s">
         <v>196</v>
-      </c>
-      <c r="B142" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -2483,52 +2499,52 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" t="s">
         <v>201</v>
-      </c>
-      <c r="B146" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B147" t="s">
         <v>203</v>
-      </c>
-      <c r="B147" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B148" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B149" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -2536,7 +2552,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B151">
         <v>1221</v>
@@ -2544,7 +2560,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B152">
         <v>222</v>
@@ -2552,7 +2568,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B153">
         <v>1222</v>
@@ -2560,7 +2576,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B154">
         <v>1322</v>
@@ -2568,7 +2584,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -2576,15 +2592,15 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B156" t="s">
         <v>213</v>
-      </c>
-      <c r="B156" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -2592,21 +2608,21 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B158" t="s">
         <v>216</v>
-      </c>
-      <c r="B158" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="B24" r:id="rId4"/>
-    <hyperlink ref="B31" r:id="rId5"/>
-    <hyperlink ref="B3" r:id="rId6"/>
-    <hyperlink ref="B47" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B24" r:id="rId2"/>
+    <hyperlink ref="B31" r:id="rId3"/>
+    <hyperlink ref="B47" r:id="rId4"/>
+    <hyperlink ref="B1" r:id="rId5" display="https://login.teamleaseregtech.com/BM_Management/Meetings/Meetings#"/>
+    <hyperlink ref="B2" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -2622,40 +2638,40 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4">
         <v>12344321</v>
@@ -2663,39 +2679,39 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9">
         <v>123456785643</v>
@@ -2703,7 +2719,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10">
         <v>1111111111</v>
@@ -2711,65 +2727,65 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" t="s">
         <v>237</v>
-      </c>
-      <c r="B13" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
         <v>239</v>
-      </c>
-      <c r="B14" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" t="s">
         <v>242</v>
-      </c>
-      <c r="B17" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2777,7 +2793,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2785,15 +2801,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" t="s">
         <v>247</v>
-      </c>
-      <c r="B21" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -2801,7 +2817,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23">
         <v>2072023</v>
@@ -2809,7 +2825,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24">
         <v>3072023</v>
@@ -2817,7 +2833,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25">
         <v>122</v>
@@ -2825,7 +2841,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -2833,7 +2849,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -2841,15 +2857,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" t="s">
         <v>255</v>
-      </c>
-      <c r="B28" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -2857,7 +2873,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30">
         <v>223</v>
@@ -2865,44 +2881,44 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Scretrial.xlsx
+++ b/TestData/Scretrial.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G18"/>
+  <oleSize ref="A1:E18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="270">
   <si>
+    <t>Url</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
+    <t>https://login.teamleaseregtech.com/BM_Management/Meetings/Meetings#</t>
+  </si>
+  <si>
     <t>Account No</t>
   </si>
   <si>
@@ -825,12 +831,6 @@
   </si>
   <si>
     <t>abc</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://secretariallive.teamleaseregtech.com</t>
   </si>
 </sst>
 </file>
@@ -995,7 +995,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,14 +1014,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1029,23 +1023,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1105,9 +1088,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1391,48 +1371,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" customFormat="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" customFormat="1" ht="15" thickBot="1">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" customFormat="1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="30">
         <v>65327523467</v>
@@ -1440,105 +1420,105 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1546,28 +1526,28 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>1111111111</v>
@@ -1575,100 +1555,100 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -1676,23 +1656,23 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>7654323456765630</v>
@@ -1700,20 +1680,20 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42">
         <v>24</v>
@@ -1721,7 +1701,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1729,44 +1709,44 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>33</v>
@@ -1774,7 +1754,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1782,15 +1762,15 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>22</v>
@@ -1798,41 +1778,41 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58">
         <v>12</v>
@@ -1840,52 +1820,52 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -1893,7 +1873,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66">
         <v>4545</v>
@@ -1901,15 +1881,15 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1917,23 +1897,23 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71">
         <v>51</v>
@@ -1941,28 +1921,28 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -1970,7 +1950,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1978,7 +1958,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1986,7 +1966,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -1994,15 +1974,15 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2010,7 +1990,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B81">
         <v>12</v>
@@ -2018,7 +1998,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2026,44 +2006,44 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>100</v>
@@ -2071,7 +2051,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>212</v>
@@ -2079,7 +2059,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>100</v>
@@ -2087,7 +2067,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>125</v>
@@ -2095,7 +2075,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>1000</v>
@@ -2103,7 +2083,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B93">
         <v>233</v>
@@ -2111,7 +2091,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B94">
         <v>12</v>
@@ -2119,23 +2099,23 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>213</v>
@@ -2143,7 +2123,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>12</v>
@@ -2151,28 +2131,28 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2180,15 +2160,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -2196,7 +2176,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105">
         <v>1000</v>
@@ -2204,7 +2184,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B106">
         <v>200</v>
@@ -2212,7 +2192,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>1123</v>
@@ -2220,15 +2200,15 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2236,7 +2216,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -2244,7 +2224,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B111">
         <v>1111</v>
@@ -2252,36 +2232,36 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B116">
         <v>222</v>
@@ -2289,23 +2269,23 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B119">
         <v>12</v>
@@ -2313,105 +2293,105 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B131" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B132" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B133">
         <v>1000</v>
@@ -2419,7 +2399,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B134">
         <v>12</v>
@@ -2427,15 +2407,15 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B136">
         <v>11</v>
@@ -2443,7 +2423,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -2451,15 +2431,15 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2467,7 +2447,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B140">
         <v>2000</v>
@@ -2475,7 +2455,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B141">
         <v>1233</v>
@@ -2483,15 +2463,15 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B142" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -2499,52 +2479,52 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B149" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -2552,7 +2532,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B151">
         <v>1221</v>
@@ -2560,7 +2540,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B152">
         <v>222</v>
@@ -2568,7 +2548,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B153">
         <v>1222</v>
@@ -2576,7 +2556,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B154">
         <v>1322</v>
@@ -2584,7 +2564,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -2592,15 +2572,15 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B156" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -2608,21 +2588,21 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B24" r:id="rId2"/>
-    <hyperlink ref="B31" r:id="rId3"/>
-    <hyperlink ref="B47" r:id="rId4"/>
-    <hyperlink ref="B1" r:id="rId5" display="https://login.teamleaseregtech.com/BM_Management/Meetings/Meetings#"/>
-    <hyperlink ref="B2" r:id="rId6"/>
-    <hyperlink ref="B3" r:id="rId7"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B24" r:id="rId4"/>
+    <hyperlink ref="B31" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
+    <hyperlink ref="B47" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -2638,40 +2618,40 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
         <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B4">
         <v>12344321</v>
@@ -2679,39 +2659,39 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B9">
         <v>123456785643</v>
@@ -2719,7 +2699,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B10">
         <v>1111111111</v>
@@ -2727,65 +2707,65 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2793,7 +2773,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2801,15 +2781,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -2817,7 +2797,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B23">
         <v>2072023</v>
@@ -2825,7 +2805,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24">
         <v>3072023</v>
@@ -2833,7 +2813,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B25">
         <v>122</v>
@@ -2841,7 +2821,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -2849,7 +2829,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -2857,15 +2837,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -2873,7 +2853,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B30">
         <v>223</v>
@@ -2881,44 +2861,44 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="28" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
